--- a/1. Documentos/Plantilla Product Backlog.xlsx
+++ b/1. Documentos/Plantilla Product Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Columna</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Product Backlog</t>
   </si>
   <si>
-    <t>Como un [nutricionista], necesito [registrarme], con la finalidad de [Registrar mis datos]</t>
-  </si>
-  <si>
-    <t>Como un [usuario], necesito [buscar], con la finalidad de [Encontrar a mi nutricionista ideal]</t>
-  </si>
-  <si>
     <t>EPICO1 - H01</t>
   </si>
   <si>
@@ -143,12 +137,6 @@
     <t>EPICO14 - H14</t>
   </si>
   <si>
-    <t>Como un [usuario], necesito [seleccionar a un nutricionista], con la finalidad de []</t>
-  </si>
-  <si>
-    <t>Como un [], necesito [], con la finalidad de []</t>
-  </si>
-  <si>
     <t>Como un [nutricionista], necesito [modificar mi método de pago], con la finalidad de [mantener mi membresia en la NutriApp]</t>
   </si>
   <si>
@@ -161,10 +149,40 @@
     <t>Como un [usuario], necesito [modificar mis datos], con la finalidad de [mantener actualizado mis datos]</t>
   </si>
   <si>
-    <t>Como un [administrados], necesito [administrar a los usuarios], con la finalidad de [mantener un control de nuestros usuarios]</t>
-  </si>
-  <si>
     <t>EPICO15 - H15</t>
+  </si>
+  <si>
+    <t>Como un nutricionista, necesito registrar mis datos, con la finalidad de poder interactuar en el app.</t>
+  </si>
+  <si>
+    <t>Como un usuario, necesito buscar un nutricionista, con la finalidad de contactarme con un nutricionista.</t>
+  </si>
+  <si>
+    <t>Como un usuario, necesito seleccionar un nutricionista, con la finalidad de contactar a un nutricionista.</t>
+  </si>
+  <si>
+    <t>Como un usuario, necesito contactarme con un nutricionista, con la finalidad de contratar sus servicios.</t>
+  </si>
+  <si>
+    <t>Como un usuario, necesito registrar mis datos, con la finalidad de poder interactuar en el app.</t>
+  </si>
+  <si>
+    <t>Como un usuario, necesito seleccionar un horario de disponibilidad, con la finalidad de contactarme con un nutricionista.</t>
+  </si>
+  <si>
+    <t>Como un nutricionista, necesito seleccionar una suscripción de pago, con la finalidad de ingresar mi especialidad.</t>
+  </si>
+  <si>
+    <t>Como un nutricionista, necesito elegir un método de pago, con la finalidad de contar con una suscripción.</t>
+  </si>
+  <si>
+    <t>Como un [administrador], necesito [administrar a los usuarios], con la finalidad de [mantener un control de nuestros usuarios]</t>
+  </si>
+  <si>
+    <t>Como un [administrador], necesito [administrar a los nutricionistas], con la finalidad de [mantener un control de los nutricionistas]</t>
+  </si>
+  <si>
+    <t>Como un [usuario y nutricionista], necesito [iniciar sesión], con la finalidad de [poder acceder al app]</t>
   </si>
 </sst>
 </file>
@@ -564,7 +582,7 @@
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +633,10 @@
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -627,12 +645,12 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -641,12 +659,12 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -655,12 +673,12 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -671,10 +689,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -683,12 +701,12 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -697,12 +715,12 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -711,12 +729,12 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -727,10 +745,10 @@
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -741,10 +759,10 @@
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -755,10 +773,10 @@
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -769,10 +787,10 @@
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -783,10 +801,10 @@
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -795,12 +813,12 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -809,12 +827,12 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
